--- a/data/trans_camb/P18_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_4_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-30,29</t>
+          <t>-38,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-19,16</t>
+          <t>-13,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-28,88</t>
+          <t>-33,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-23,18</t>
+          <t>-42,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-24,96</t>
+          <t>-20,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-28,35</t>
+          <t>-23,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-26,56</t>
+          <t>-26,42</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-22,39</t>
+          <t>-19,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-28,5</t>
+          <t>-29,02</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-18,61</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-29,96</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-30,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-46,77; -17,71</t>
+          <t>-65,86; -19,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 6,31</t>
+          <t>-43,25; 29,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,22; -15,8</t>
+          <t>-62,24; -12,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,01; -12,69</t>
+          <t>-68,84; -23,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,81; -13,0</t>
+          <t>-39,71; -2,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,18; -17,41</t>
+          <t>-40,71; -5,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,59; -16,95</t>
+          <t>-44,12; -9,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,75; -10,52</t>
+          <t>-39,61; 1,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-37,27; -18,93</t>
+          <t>-46,51; -15,74</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-36,38; 2,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-46,45; -16,04</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-46,68; -16,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-78,21%</t>
+          <t>-83,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-49,47%</t>
+          <t>-28,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-74,58%</t>
+          <t>-72,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-53,46%</t>
+          <t>-91,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-57,57%</t>
+          <t>-43,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-65,38%</t>
+          <t>-50,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-64,33%</t>
+          <t>-57,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-54,22%</t>
+          <t>-41,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-69,02%</t>
+          <t>-62,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-40,19%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-64,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-64,89%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-91,27; -53,42</t>
+          <t>-97,16; -50,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,22; 32,13</t>
+          <t>-82,31; 133,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-88,09; -48,66</t>
+          <t>-93,89; -33,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,7; -32,62</t>
+          <t>-100,0; -71,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,98; -35,55</t>
+          <t>-72,18; -6,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,63; -46,03</t>
+          <t>-74,8; -15,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-75,49; -46,63</t>
+          <t>-78,01; -21,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,98; -23,68</t>
+          <t>-71,03; 5,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-80,98; -54,09</t>
+          <t>-80,83; -37,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-68,07; 15,97</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-81,88; -39,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-83,44; -38,92</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,43</t>
+          <t>-13,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,78</t>
+          <t>-11,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,85</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,46</t>
+          <t>-12,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>-16,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,22</t>
+          <t>-9,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,6</t>
+          <t>-13,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,69</t>
+          <t>-20,14</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-13,29</t>
+          <t>-14,73</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-10,52</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-11,84</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-16,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,46; -5,34</t>
+          <t>-20,99; -4,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,62; -5,54</t>
+          <t>-18,88; -2,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -5,12</t>
+          <t>-18,16; -0,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,56; -13,32</t>
+          <t>-20,66; -4,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -7,59</t>
+          <t>-23,47; -7,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -5,94</t>
+          <t>-18,42; -1,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,27; -11,71</t>
+          <t>-21,96; -6,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,94; -8,22</t>
+          <t>-27,64; -12,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,67; -7,96</t>
+          <t>-20,58; -8,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-16,66; -4,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; -5,86</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-22,45; -10,84</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-58,17%</t>
+          <t>-61,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-55,37%</t>
+          <t>-52,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-51,35%</t>
+          <t>-45,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-65,18%</t>
+          <t>-58,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-47,65%</t>
+          <t>-60,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,63%</t>
+          <t>-35,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-62,31%</t>
+          <t>-50,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-51,38%</t>
+          <t>-74,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-49,88%</t>
+          <t>-60,74%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-43,38%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-48,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-67,33%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-75,22; -19,51</t>
+          <t>-79,84; -27,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,24; -25,47</t>
+          <t>-73,84; -13,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,9; -23,32</t>
+          <t>-69,63; -1,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,41; -48,8</t>
+          <t>-78,5; -22,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,64; -27,5</t>
+          <t>-76,57; -34,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,52; -20,59</t>
+          <t>-58,5; -4,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,94; -45,57</t>
+          <t>-69,45; -26,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,98; -33,07</t>
+          <t>-87,07; -54,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,74; -32,26</t>
+          <t>-73,56; -38,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-60,61; -21,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-64,26; -27,33</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-78,78; -50,69</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-17,87</t>
+          <t>-17,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-18,56</t>
+          <t>-16,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-16,89</t>
+          <t>-15,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,82</t>
+          <t>-18,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-14,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,76</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-15,68</t>
+          <t>-13,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-12,7</t>
+          <t>-14,28</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-13,6</t>
+          <t>-15,9</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-12,55</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-14,17</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-16,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,72; -11,41</t>
+          <t>-25,12; -8,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,87; -12,21</t>
+          <t>-24,82; -7,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,79; -9,65</t>
+          <t>-24,73; -6,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,85; -8,67</t>
+          <t>-27,09; -10,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,07; -2,08</t>
+          <t>-21,69; -7,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -5,02</t>
+          <t>-16,48; -1,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -11,11</t>
+          <t>-19,85; -5,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,2; -7,7</t>
+          <t>-21,0; -6,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -8,66</t>
+          <t>-21,04; -9,99</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-17,97; -7,06</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-19,63; -8,8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-21,62; -10,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-76,47%</t>
+          <t>-75,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-79,42%</t>
+          <t>-73,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-72,28%</t>
+          <t>-68,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-74,58%</t>
+          <t>-80,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,5%</t>
+          <t>-78,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-58,08%</t>
+          <t>-48,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-75,56%</t>
+          <t>-68,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-61,21%</t>
+          <t>-75,03%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-65,52%</t>
+          <t>-77,03%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-60,82%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-68,66%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-77,83%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,72; -56,11</t>
+          <t>-89,52; -40,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-90,6; -59,97</t>
+          <t>-89,13; -38,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,19; -46,85</t>
+          <t>-86,98; -28,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-86,88; -54,72</t>
+          <t>-94,45; -54,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,83; -13,22</t>
+          <t>-90,96; -53,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,36; -32,61</t>
+          <t>-71,3; -8,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-85,46; -60,48</t>
+          <t>-84,83; -39,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,74; -43,01</t>
+          <t>-89,82; -45,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,9; -47,84</t>
+          <t>-87,46; -60,07</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-74,9; -39,65</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-81,56; -48,52</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-88,51; -60,06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-17,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-15,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-16,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-18,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-15,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-17,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-14,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-15,81</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,0; -12,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,12; -9,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -11,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,45; -13,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -9,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,84; -10,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,39; -14,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -11,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-19,05; -12,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-68,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-61,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-62,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-64,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-54,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-66,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-54,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-58,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-79,01; -52,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-74,19; -40,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,35; -47,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,05; -52,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,98; -37,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,29; -39,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-73,31; -56,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,37; -43,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-66,13; -48,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-17,97</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-13,56</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-14,97</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-18,68</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-16,35</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-11,3</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-15,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-16,38</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-17,09</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-12,39</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-15,02</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-17,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-25,44; -11,89</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-21,26; -3,68</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-23,03; -8,53</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-26,12; -12,59</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-21,61; -11,01</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-16,85; -5,96</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-20,48; -10,05</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-21,54; -10,66</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-21,37; -12,95</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-16,8; -7,3</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-19,31; -10,84</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-21,72; -13,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-71,4%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-53,89%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-59,5%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-74,23%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-62,13%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-42,94%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-56,98%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-62,24%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-66,3%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-48,03%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-58,23%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-67,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-82,32; -54,03</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-72,4; -15,63</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-74,35; -39,45</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-84,81; -57,49</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-72,85; -46,33</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-57,4; -25,59</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-70,28; -41,68</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-74,28; -45,2</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-74,31; -55,95</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-59,53; -30,36</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-67,54; -45,07</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-76,89; -57,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
